--- a/ressources/import/IMPORT BOT2_Wahl.xlsx
+++ b/ressources/import/IMPORT BOT2_Wahl.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\+++Schule\AE_LF12\Projekt Berufsorientierungstag\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Documents\Schule\Projects\eventplanner\ressources\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFBD632E-7719-42E0-BAB6-5B466581081C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A046013B-72D4-4557-A1E2-0F0322BB7704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wahl" sheetId="3" r:id="rId1"/>
@@ -28,9 +28,6 @@
     <t>Klasse</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Vorname</t>
   </si>
   <si>
@@ -857,6 +854,9 @@
   </si>
   <si>
     <t>Wahl 6</t>
+  </si>
+  <si>
+    <t>Nachname</t>
   </si>
 </sst>
 </file>
@@ -1672,7 +1672,7 @@
   <dimension ref="A1:I136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I150"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1682,39 +1682,39 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
       <c r="I1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
       </c>
       <c r="D2">
         <v>6</v>
@@ -1737,13 +1737,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
       </c>
       <c r="D3">
         <v>16</v>
@@ -1766,13 +1766,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
       </c>
       <c r="D4">
         <v>20</v>
@@ -1795,13 +1795,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -1824,13 +1824,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
         <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -1853,24 +1853,24 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
         <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
       </c>
       <c r="D8">
         <v>6</v>
@@ -1893,13 +1893,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
       <c r="D9">
         <v>7</v>
@@ -1922,13 +1922,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -1951,13 +1951,13 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
         <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -1980,13 +1980,13 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
         <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -2009,13 +2009,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
         <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
       </c>
       <c r="D13">
         <v>6</v>
@@ -2038,13 +2038,13 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
         <v>33</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
       </c>
       <c r="D14">
         <v>15</v>
@@ -2067,13 +2067,13 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
         <v>35</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2096,13 +2096,13 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
         <v>37</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>38</v>
-      </c>
-      <c r="C16" t="s">
-        <v>39</v>
       </c>
       <c r="D16">
         <v>10</v>
@@ -2125,13 +2125,13 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
         <v>40</v>
-      </c>
-      <c r="C17" t="s">
-        <v>41</v>
       </c>
       <c r="D17">
         <v>9</v>
@@ -2154,13 +2154,13 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
         <v>42</v>
-      </c>
-      <c r="C18" t="s">
-        <v>43</v>
       </c>
       <c r="D18">
         <v>19</v>
@@ -2183,13 +2183,13 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
         <v>44</v>
-      </c>
-      <c r="C19" t="s">
-        <v>45</v>
       </c>
       <c r="D19">
         <v>19</v>
@@ -2212,13 +2212,13 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
         <v>46</v>
-      </c>
-      <c r="C20" t="s">
-        <v>47</v>
       </c>
       <c r="D20">
         <v>18</v>
@@ -2241,13 +2241,13 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
         <v>48</v>
-      </c>
-      <c r="C21" t="s">
-        <v>49</v>
       </c>
       <c r="D21">
         <v>18</v>
@@ -2270,13 +2270,13 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" t="s">
         <v>50</v>
-      </c>
-      <c r="C22" t="s">
-        <v>51</v>
       </c>
       <c r="D22">
         <v>19</v>
@@ -2299,13 +2299,13 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" t="s">
         <v>52</v>
-      </c>
-      <c r="C23" t="s">
-        <v>53</v>
       </c>
       <c r="D23">
         <v>19</v>
@@ -2328,13 +2328,13 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" t="s">
         <v>54</v>
-      </c>
-      <c r="C24" t="s">
-        <v>55</v>
       </c>
       <c r="D24">
         <v>18</v>
@@ -2357,13 +2357,13 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
         <v>56</v>
-      </c>
-      <c r="C25" t="s">
-        <v>57</v>
       </c>
       <c r="D25">
         <v>10</v>
@@ -2386,13 +2386,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D26">
         <v>9</v>
@@ -2409,13 +2409,13 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" t="s">
         <v>59</v>
-      </c>
-      <c r="C27" t="s">
-        <v>60</v>
       </c>
       <c r="D27">
         <v>14</v>
@@ -2438,13 +2438,13 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" t="s">
         <v>61</v>
-      </c>
-      <c r="C28" t="s">
-        <v>62</v>
       </c>
       <c r="D28">
         <v>3</v>
@@ -2467,13 +2467,13 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D29">
         <v>22</v>
@@ -2496,13 +2496,13 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" t="s">
         <v>64</v>
-      </c>
-      <c r="C30" t="s">
-        <v>65</v>
       </c>
       <c r="D30">
         <v>16</v>
@@ -2525,24 +2525,24 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
         <v>66</v>
-      </c>
-      <c r="C31" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" t="s">
         <v>68</v>
-      </c>
-      <c r="C32" t="s">
-        <v>69</v>
       </c>
       <c r="D32">
         <v>19</v>
@@ -2565,13 +2565,13 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" t="s">
         <v>70</v>
-      </c>
-      <c r="C33" t="s">
-        <v>71</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -2594,13 +2594,13 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" t="s">
         <v>72</v>
-      </c>
-      <c r="C34" t="s">
-        <v>73</v>
       </c>
       <c r="D34">
         <v>19</v>
@@ -2623,13 +2623,13 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" t="s">
         <v>74</v>
-      </c>
-      <c r="C35" t="s">
-        <v>75</v>
       </c>
       <c r="D35">
         <v>6</v>
@@ -2652,13 +2652,13 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" t="s">
         <v>76</v>
-      </c>
-      <c r="C36" t="s">
-        <v>77</v>
       </c>
       <c r="D36">
         <v>19</v>
@@ -2681,13 +2681,13 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" t="s">
         <v>78</v>
-      </c>
-      <c r="C37" t="s">
-        <v>79</v>
       </c>
       <c r="D37">
         <v>9</v>
@@ -2710,13 +2710,13 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" t="s">
         <v>80</v>
-      </c>
-      <c r="C38" t="s">
-        <v>81</v>
       </c>
       <c r="D38">
         <v>27</v>
@@ -2739,13 +2739,13 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" t="s">
         <v>82</v>
-      </c>
-      <c r="C39" t="s">
-        <v>83</v>
       </c>
       <c r="D39">
         <v>19</v>
@@ -2768,13 +2768,13 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" t="s">
         <v>84</v>
-      </c>
-      <c r="C40" t="s">
-        <v>85</v>
       </c>
       <c r="D40">
         <v>19</v>
@@ -2797,13 +2797,13 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" t="s">
         <v>86</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>87</v>
-      </c>
-      <c r="C41" t="s">
-        <v>88</v>
       </c>
       <c r="D41">
         <v>19</v>
@@ -2826,13 +2826,13 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B42" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" t="s">
         <v>89</v>
-      </c>
-      <c r="C42" t="s">
-        <v>90</v>
       </c>
       <c r="D42">
         <v>22</v>
@@ -2855,13 +2855,13 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B43" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" t="s">
         <v>91</v>
-      </c>
-      <c r="C43" t="s">
-        <v>92</v>
       </c>
       <c r="D43">
         <v>18</v>
@@ -2884,13 +2884,13 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" t="s">
         <v>93</v>
-      </c>
-      <c r="C44" t="s">
-        <v>94</v>
       </c>
       <c r="D44">
         <v>22</v>
@@ -2913,13 +2913,13 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B45" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" t="s">
         <v>95</v>
-      </c>
-      <c r="C45" t="s">
-        <v>96</v>
       </c>
       <c r="D45">
         <v>16</v>
@@ -2942,13 +2942,13 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B46" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" t="s">
         <v>97</v>
-      </c>
-      <c r="C46" t="s">
-        <v>98</v>
       </c>
       <c r="D46">
         <v>18</v>
@@ -2971,13 +2971,13 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47" t="s">
         <v>99</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>100</v>
-      </c>
-      <c r="C47" t="s">
-        <v>101</v>
       </c>
       <c r="D47">
         <v>4</v>
@@ -3000,13 +3000,13 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B48" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" t="s">
         <v>102</v>
-      </c>
-      <c r="C48" t="s">
-        <v>103</v>
       </c>
       <c r="D48">
         <v>4</v>
@@ -3029,13 +3029,13 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B49" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" t="s">
         <v>104</v>
-      </c>
-      <c r="C49" t="s">
-        <v>105</v>
       </c>
       <c r="D49">
         <v>6</v>
@@ -3058,13 +3058,13 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B50" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" t="s">
         <v>106</v>
-      </c>
-      <c r="C50" t="s">
-        <v>107</v>
       </c>
       <c r="D50">
         <v>18</v>
@@ -3087,13 +3087,13 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" t="s">
         <v>108</v>
-      </c>
-      <c r="C51" t="s">
-        <v>109</v>
       </c>
       <c r="D51">
         <v>14</v>
@@ -3116,13 +3116,13 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B52" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" t="s">
         <v>110</v>
-      </c>
-      <c r="C52" t="s">
-        <v>111</v>
       </c>
       <c r="D52">
         <v>18</v>
@@ -3145,13 +3145,13 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B53" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" t="s">
         <v>112</v>
-      </c>
-      <c r="C53" t="s">
-        <v>113</v>
       </c>
       <c r="D53">
         <v>20</v>
@@ -3174,13 +3174,13 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B54" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" t="s">
         <v>114</v>
-      </c>
-      <c r="C54" t="s">
-        <v>115</v>
       </c>
       <c r="D54">
         <v>5</v>
@@ -3203,13 +3203,13 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B55" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55" t="s">
         <v>116</v>
-      </c>
-      <c r="C55" t="s">
-        <v>117</v>
       </c>
       <c r="D55">
         <v>19</v>
@@ -3232,13 +3232,13 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B56" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" t="s">
         <v>118</v>
-      </c>
-      <c r="C56" t="s">
-        <v>119</v>
       </c>
       <c r="D56">
         <v>2</v>
@@ -3261,13 +3261,13 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B57" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" t="s">
         <v>120</v>
-      </c>
-      <c r="C57" t="s">
-        <v>121</v>
       </c>
       <c r="D57">
         <v>18</v>
@@ -3290,13 +3290,13 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C58" t="s">
         <v>122</v>
-      </c>
-      <c r="C58" t="s">
-        <v>123</v>
       </c>
       <c r="D58">
         <v>19</v>
@@ -3319,13 +3319,13 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B59" t="s">
+        <v>123</v>
+      </c>
+      <c r="C59" t="s">
         <v>124</v>
-      </c>
-      <c r="C59" t="s">
-        <v>125</v>
       </c>
       <c r="D59">
         <v>6</v>
@@ -3348,13 +3348,13 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B60" t="s">
+        <v>125</v>
+      </c>
+      <c r="C60" t="s">
         <v>126</v>
-      </c>
-      <c r="C60" t="s">
-        <v>127</v>
       </c>
       <c r="D60">
         <v>27</v>
@@ -3377,13 +3377,13 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>127</v>
+      </c>
+      <c r="B61" t="s">
         <v>128</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>129</v>
-      </c>
-      <c r="C61" t="s">
-        <v>130</v>
       </c>
       <c r="D61">
         <v>2</v>
@@ -3406,13 +3406,13 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B62" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" t="s">
         <v>131</v>
-      </c>
-      <c r="C62" t="s">
-        <v>132</v>
       </c>
       <c r="D62">
         <v>3</v>
@@ -3435,13 +3435,13 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B63" t="s">
+        <v>132</v>
+      </c>
+      <c r="C63" t="s">
         <v>133</v>
-      </c>
-      <c r="C63" t="s">
-        <v>134</v>
       </c>
       <c r="D63">
         <v>6</v>
@@ -3464,13 +3464,13 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B64" t="s">
+        <v>134</v>
+      </c>
+      <c r="C64" t="s">
         <v>135</v>
-      </c>
-      <c r="C64" t="s">
-        <v>136</v>
       </c>
       <c r="D64">
         <v>6</v>
@@ -3493,13 +3493,13 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B65" t="s">
+        <v>136</v>
+      </c>
+      <c r="C65" t="s">
         <v>137</v>
-      </c>
-      <c r="C65" t="s">
-        <v>138</v>
       </c>
       <c r="D65">
         <v>10</v>
@@ -3522,13 +3522,13 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B66" t="s">
+        <v>138</v>
+      </c>
+      <c r="C66" t="s">
         <v>139</v>
-      </c>
-      <c r="C66" t="s">
-        <v>140</v>
       </c>
       <c r="D66">
         <v>10</v>
@@ -3551,13 +3551,13 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C67" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D67">
         <v>10</v>
@@ -3580,13 +3580,13 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B68" t="s">
+        <v>141</v>
+      </c>
+      <c r="C68" t="s">
         <v>142</v>
-      </c>
-      <c r="C68" t="s">
-        <v>143</v>
       </c>
       <c r="D68">
         <v>2</v>
@@ -3609,13 +3609,13 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B69" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" t="s">
         <v>144</v>
-      </c>
-      <c r="C69" t="s">
-        <v>145</v>
       </c>
       <c r="D69">
         <v>26</v>
@@ -3638,13 +3638,13 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B70" t="s">
+        <v>145</v>
+      </c>
+      <c r="C70" t="s">
         <v>146</v>
-      </c>
-      <c r="C70" t="s">
-        <v>147</v>
       </c>
       <c r="D70">
         <v>19</v>
@@ -3667,13 +3667,13 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B71" t="s">
+        <v>147</v>
+      </c>
+      <c r="C71" t="s">
         <v>148</v>
-      </c>
-      <c r="C71" t="s">
-        <v>149</v>
       </c>
       <c r="D71">
         <v>25</v>
@@ -3696,13 +3696,13 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B72" t="s">
+        <v>149</v>
+      </c>
+      <c r="C72" t="s">
         <v>150</v>
-      </c>
-      <c r="C72" t="s">
-        <v>151</v>
       </c>
       <c r="D72">
         <v>9</v>
@@ -3725,13 +3725,13 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B73" t="s">
+        <v>151</v>
+      </c>
+      <c r="C73" t="s">
         <v>152</v>
-      </c>
-      <c r="C73" t="s">
-        <v>153</v>
       </c>
       <c r="D73">
         <v>9</v>
@@ -3754,13 +3754,13 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B74" t="s">
+        <v>153</v>
+      </c>
+      <c r="C74" t="s">
         <v>154</v>
-      </c>
-      <c r="C74" t="s">
-        <v>155</v>
       </c>
       <c r="D74">
         <v>3</v>
@@ -3783,13 +3783,13 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B75" t="s">
+        <v>155</v>
+      </c>
+      <c r="C75" t="s">
         <v>156</v>
-      </c>
-      <c r="C75" t="s">
-        <v>157</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -3812,13 +3812,13 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B76" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C76" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D76">
         <v>2</v>
@@ -3841,13 +3841,13 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B77" t="s">
+        <v>157</v>
+      </c>
+      <c r="C77" t="s">
         <v>158</v>
-      </c>
-      <c r="C77" t="s">
-        <v>159</v>
       </c>
       <c r="D77">
         <v>17</v>
@@ -3870,13 +3870,13 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B78" t="s">
+        <v>159</v>
+      </c>
+      <c r="C78" t="s">
         <v>160</v>
-      </c>
-      <c r="C78" t="s">
-        <v>161</v>
       </c>
       <c r="D78">
         <v>7</v>
@@ -3899,13 +3899,13 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B79" t="s">
+        <v>161</v>
+      </c>
+      <c r="C79" t="s">
         <v>162</v>
-      </c>
-      <c r="C79" t="s">
-        <v>163</v>
       </c>
       <c r="D79">
         <v>7</v>
@@ -3928,13 +3928,13 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B80" t="s">
+        <v>163</v>
+      </c>
+      <c r="C80" t="s">
         <v>164</v>
-      </c>
-      <c r="C80" t="s">
-        <v>165</v>
       </c>
       <c r="D80">
         <v>17</v>
@@ -3957,13 +3957,13 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B81" t="s">
+        <v>165</v>
+      </c>
+      <c r="C81" t="s">
         <v>166</v>
-      </c>
-      <c r="C81" t="s">
-        <v>167</v>
       </c>
       <c r="D81">
         <v>10</v>
@@ -3983,13 +3983,13 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B82" t="s">
+        <v>167</v>
+      </c>
+      <c r="C82" t="s">
         <v>168</v>
-      </c>
-      <c r="C82" t="s">
-        <v>169</v>
       </c>
       <c r="D82">
         <v>10</v>
@@ -4012,13 +4012,13 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B83" t="s">
+        <v>169</v>
+      </c>
+      <c r="C83" t="s">
         <v>170</v>
-      </c>
-      <c r="C83" t="s">
-        <v>171</v>
       </c>
       <c r="D83">
         <v>10</v>
@@ -4041,13 +4041,13 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>171</v>
+      </c>
+      <c r="B84" t="s">
         <v>172</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>173</v>
-      </c>
-      <c r="C84" t="s">
-        <v>174</v>
       </c>
       <c r="D84">
         <v>26</v>
@@ -4070,13 +4070,13 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B85" t="s">
+        <v>174</v>
+      </c>
+      <c r="C85" t="s">
         <v>175</v>
-      </c>
-      <c r="C85" t="s">
-        <v>176</v>
       </c>
       <c r="D85">
         <v>3</v>
@@ -4099,13 +4099,13 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B86" t="s">
+        <v>176</v>
+      </c>
+      <c r="C86" t="s">
         <v>177</v>
-      </c>
-      <c r="C86" t="s">
-        <v>178</v>
       </c>
       <c r="D86">
         <v>18</v>
@@ -4128,13 +4128,13 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B87" t="s">
+        <v>178</v>
+      </c>
+      <c r="C87" t="s">
         <v>179</v>
-      </c>
-      <c r="C87" t="s">
-        <v>180</v>
       </c>
       <c r="D87">
         <v>19</v>
@@ -4157,13 +4157,13 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B88" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C88" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D88">
         <v>26</v>
@@ -4186,13 +4186,13 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B89" t="s">
+        <v>181</v>
+      </c>
+      <c r="C89" t="s">
         <v>182</v>
-      </c>
-      <c r="C89" t="s">
-        <v>183</v>
       </c>
       <c r="D89">
         <v>20</v>
@@ -4215,13 +4215,13 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B90" t="s">
+        <v>183</v>
+      </c>
+      <c r="C90" t="s">
         <v>184</v>
-      </c>
-      <c r="C90" t="s">
-        <v>185</v>
       </c>
       <c r="D90">
         <v>8</v>
@@ -4244,13 +4244,13 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B91" t="s">
+        <v>185</v>
+      </c>
+      <c r="C91" t="s">
         <v>186</v>
-      </c>
-      <c r="C91" t="s">
-        <v>187</v>
       </c>
       <c r="D91">
         <v>25</v>
@@ -4273,13 +4273,13 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B92" t="s">
+        <v>187</v>
+      </c>
+      <c r="C92" t="s">
         <v>188</v>
-      </c>
-      <c r="C92" t="s">
-        <v>189</v>
       </c>
       <c r="D92">
         <v>2</v>
@@ -4302,13 +4302,13 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B93" t="s">
+        <v>189</v>
+      </c>
+      <c r="C93" t="s">
         <v>190</v>
-      </c>
-      <c r="C93" t="s">
-        <v>191</v>
       </c>
       <c r="D93">
         <v>22</v>
@@ -4331,13 +4331,13 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B94" t="s">
+        <v>191</v>
+      </c>
+      <c r="C94" t="s">
         <v>192</v>
-      </c>
-      <c r="C94" t="s">
-        <v>193</v>
       </c>
       <c r="D94">
         <v>26</v>
@@ -4360,13 +4360,13 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B95" t="s">
+        <v>193</v>
+      </c>
+      <c r="C95" t="s">
         <v>194</v>
-      </c>
-      <c r="C95" t="s">
-        <v>195</v>
       </c>
       <c r="D95">
         <v>3</v>
@@ -4389,13 +4389,13 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B96" t="s">
+        <v>195</v>
+      </c>
+      <c r="C96" t="s">
         <v>196</v>
-      </c>
-      <c r="C96" t="s">
-        <v>197</v>
       </c>
       <c r="D96">
         <v>18</v>
@@ -4418,13 +4418,13 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B97" t="s">
+        <v>197</v>
+      </c>
+      <c r="C97" t="s">
         <v>198</v>
-      </c>
-      <c r="C97" t="s">
-        <v>199</v>
       </c>
       <c r="D97">
         <v>13</v>
@@ -4447,13 +4447,13 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B98" t="s">
+        <v>199</v>
+      </c>
+      <c r="C98" t="s">
         <v>200</v>
-      </c>
-      <c r="C98" t="s">
-        <v>201</v>
       </c>
       <c r="D98">
         <v>26</v>
@@ -4476,13 +4476,13 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B99" t="s">
+        <v>201</v>
+      </c>
+      <c r="C99" t="s">
         <v>202</v>
-      </c>
-      <c r="C99" t="s">
-        <v>203</v>
       </c>
       <c r="D99">
         <v>9</v>
@@ -4505,13 +4505,13 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B100" t="s">
+        <v>203</v>
+      </c>
+      <c r="C100" t="s">
         <v>204</v>
-      </c>
-      <c r="C100" t="s">
-        <v>205</v>
       </c>
       <c r="D100">
         <v>18</v>
@@ -4534,13 +4534,13 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B101" t="s">
+        <v>205</v>
+      </c>
+      <c r="C101" t="s">
         <v>206</v>
-      </c>
-      <c r="C101" t="s">
-        <v>207</v>
       </c>
       <c r="D101">
         <v>14</v>
@@ -4563,13 +4563,13 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B102" t="s">
+        <v>207</v>
+      </c>
+      <c r="C102" t="s">
         <v>208</v>
-      </c>
-      <c r="C102" t="s">
-        <v>209</v>
       </c>
       <c r="D102">
         <v>19</v>
@@ -4592,13 +4592,13 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B103" t="s">
+        <v>209</v>
+      </c>
+      <c r="C103" t="s">
         <v>210</v>
-      </c>
-      <c r="C103" t="s">
-        <v>211</v>
       </c>
       <c r="D103">
         <v>2</v>
@@ -4621,13 +4621,13 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>211</v>
+      </c>
+      <c r="B104" t="s">
         <v>212</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
         <v>213</v>
-      </c>
-      <c r="C104" t="s">
-        <v>214</v>
       </c>
       <c r="D104">
         <v>4</v>
@@ -4650,13 +4650,13 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B105" t="s">
+        <v>214</v>
+      </c>
+      <c r="C105" t="s">
         <v>215</v>
-      </c>
-      <c r="C105" t="s">
-        <v>216</v>
       </c>
       <c r="D105">
         <v>19</v>
@@ -4679,13 +4679,13 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B106" t="s">
+        <v>216</v>
+      </c>
+      <c r="C106" t="s">
         <v>217</v>
-      </c>
-      <c r="C106" t="s">
-        <v>218</v>
       </c>
       <c r="D106">
         <v>9</v>
@@ -4708,13 +4708,13 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B107" t="s">
+        <v>218</v>
+      </c>
+      <c r="C107" t="s">
         <v>219</v>
-      </c>
-      <c r="C107" t="s">
-        <v>220</v>
       </c>
       <c r="D107">
         <v>19</v>
@@ -4737,13 +4737,13 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B108" t="s">
+        <v>220</v>
+      </c>
+      <c r="C108" t="s">
         <v>221</v>
-      </c>
-      <c r="C108" t="s">
-        <v>222</v>
       </c>
       <c r="D108">
         <v>23</v>
@@ -4766,13 +4766,13 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B109" t="s">
+        <v>222</v>
+      </c>
+      <c r="C109" t="s">
         <v>223</v>
-      </c>
-      <c r="C109" t="s">
-        <v>224</v>
       </c>
       <c r="D109">
         <v>14</v>
@@ -4795,13 +4795,13 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B110" t="s">
+        <v>224</v>
+      </c>
+      <c r="C110" t="s">
         <v>225</v>
-      </c>
-      <c r="C110" t="s">
-        <v>226</v>
       </c>
       <c r="D110">
         <v>23</v>
@@ -4824,13 +4824,13 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B111" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C111" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D111">
         <v>23</v>
@@ -4853,13 +4853,13 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B112" t="s">
+        <v>227</v>
+      </c>
+      <c r="C112" t="s">
         <v>228</v>
-      </c>
-      <c r="C112" t="s">
-        <v>229</v>
       </c>
       <c r="D112">
         <v>23</v>
@@ -4882,13 +4882,13 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B113" t="s">
+        <v>229</v>
+      </c>
+      <c r="C113" t="s">
         <v>230</v>
-      </c>
-      <c r="C113" t="s">
-        <v>231</v>
       </c>
       <c r="D113">
         <v>26</v>
@@ -4911,13 +4911,13 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B114" t="s">
+        <v>231</v>
+      </c>
+      <c r="C114" t="s">
         <v>232</v>
-      </c>
-      <c r="C114" t="s">
-        <v>233</v>
       </c>
       <c r="D114">
         <v>19</v>
@@ -4940,13 +4940,13 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B115" t="s">
+        <v>233</v>
+      </c>
+      <c r="C115" t="s">
         <v>234</v>
-      </c>
-      <c r="C115" t="s">
-        <v>235</v>
       </c>
       <c r="D115">
         <v>10</v>
@@ -4969,13 +4969,13 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B116" t="s">
+        <v>235</v>
+      </c>
+      <c r="C116" t="s">
         <v>236</v>
-      </c>
-      <c r="C116" t="s">
-        <v>237</v>
       </c>
       <c r="D116">
         <v>14</v>
@@ -4998,13 +4998,13 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B117" t="s">
+        <v>237</v>
+      </c>
+      <c r="C117" t="s">
         <v>238</v>
-      </c>
-      <c r="C117" t="s">
-        <v>239</v>
       </c>
       <c r="D117">
         <v>14</v>
@@ -5027,13 +5027,13 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B118" t="s">
+        <v>239</v>
+      </c>
+      <c r="C118" t="s">
         <v>240</v>
-      </c>
-      <c r="C118" t="s">
-        <v>241</v>
       </c>
       <c r="D118">
         <v>19</v>
@@ -5056,13 +5056,13 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B119" t="s">
+        <v>241</v>
+      </c>
+      <c r="C119" t="s">
         <v>242</v>
-      </c>
-      <c r="C119" t="s">
-        <v>243</v>
       </c>
       <c r="D119">
         <v>26</v>
@@ -5085,13 +5085,13 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B120" t="s">
+        <v>243</v>
+      </c>
+      <c r="C120" t="s">
         <v>244</v>
-      </c>
-      <c r="C120" t="s">
-        <v>245</v>
       </c>
       <c r="D120">
         <v>9</v>
@@ -5114,13 +5114,13 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B121" t="s">
+        <v>245</v>
+      </c>
+      <c r="C121" t="s">
         <v>246</v>
-      </c>
-      <c r="C121" t="s">
-        <v>247</v>
       </c>
       <c r="D121">
         <v>23</v>
@@ -5143,13 +5143,13 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
+        <v>247</v>
+      </c>
+      <c r="B122" t="s">
         <v>248</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C122" t="s">
         <v>249</v>
-      </c>
-      <c r="C122" t="s">
-        <v>250</v>
       </c>
       <c r="D122">
         <v>14</v>
@@ -5172,13 +5172,13 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B123" t="s">
+        <v>250</v>
+      </c>
+      <c r="C123" t="s">
         <v>251</v>
-      </c>
-      <c r="C123" t="s">
-        <v>252</v>
       </c>
       <c r="D123">
         <v>24</v>
@@ -5201,13 +5201,13 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B124" t="s">
+        <v>252</v>
+      </c>
+      <c r="C124" t="s">
         <v>253</v>
-      </c>
-      <c r="C124" t="s">
-        <v>254</v>
       </c>
       <c r="D124">
         <v>19</v>
@@ -5230,13 +5230,13 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B125" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C125" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D125">
         <v>19</v>
@@ -5259,13 +5259,13 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B126" t="s">
+        <v>255</v>
+      </c>
+      <c r="C126" t="s">
         <v>256</v>
-      </c>
-      <c r="C126" t="s">
-        <v>257</v>
       </c>
       <c r="D126">
         <v>15</v>
@@ -5288,13 +5288,13 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B127" t="s">
+        <v>257</v>
+      </c>
+      <c r="C127" t="s">
         <v>258</v>
-      </c>
-      <c r="C127" t="s">
-        <v>259</v>
       </c>
       <c r="D127">
         <v>23</v>
@@ -5317,13 +5317,13 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B128" t="s">
+        <v>259</v>
+      </c>
+      <c r="C128" t="s">
         <v>260</v>
-      </c>
-      <c r="C128" t="s">
-        <v>261</v>
       </c>
       <c r="D128">
         <v>3</v>
@@ -5346,13 +5346,13 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B129" t="s">
+        <v>261</v>
+      </c>
+      <c r="C129" t="s">
         <v>262</v>
-      </c>
-      <c r="C129" t="s">
-        <v>263</v>
       </c>
       <c r="D129">
         <v>26</v>
@@ -5375,13 +5375,13 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B130" t="s">
+        <v>263</v>
+      </c>
+      <c r="C130" t="s">
         <v>264</v>
-      </c>
-      <c r="C130" t="s">
-        <v>265</v>
       </c>
       <c r="D130">
         <v>23</v>
@@ -5404,13 +5404,13 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B131" t="s">
+        <v>265</v>
+      </c>
+      <c r="C131" t="s">
         <v>266</v>
-      </c>
-      <c r="C131" t="s">
-        <v>267</v>
       </c>
       <c r="D131">
         <v>19</v>
@@ -5433,13 +5433,13 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B132" t="s">
+        <v>267</v>
+      </c>
+      <c r="C132" t="s">
         <v>268</v>
-      </c>
-      <c r="C132" t="s">
-        <v>269</v>
       </c>
       <c r="D132">
         <v>26</v>
@@ -5462,13 +5462,13 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B133" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C133" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D133">
         <v>9</v>
@@ -5491,13 +5491,13 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B134" t="s">
+        <v>270</v>
+      </c>
+      <c r="C134" t="s">
         <v>271</v>
-      </c>
-      <c r="C134" t="s">
-        <v>272</v>
       </c>
       <c r="D134">
         <v>4</v>
@@ -5520,13 +5520,13 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B135" t="s">
+        <v>272</v>
+      </c>
+      <c r="C135" t="s">
         <v>273</v>
-      </c>
-      <c r="C135" t="s">
-        <v>274</v>
       </c>
       <c r="D135">
         <v>1</v>
@@ -5549,13 +5549,13 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B136" t="s">
+        <v>274</v>
+      </c>
+      <c r="C136" t="s">
         <v>275</v>
-      </c>
-      <c r="C136" t="s">
-        <v>276</v>
       </c>
       <c r="D136">
         <v>26</v>
@@ -5582,31 +5582,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="dc877d39-ac67-4e82-9042-477ace6c308a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="d189ce61-6ebc-4716-9f4e-4b76e9ad7e19" xsi:nil="true"/>
-    <SharedWithUsers xmlns="d189ce61-6ebc-4716-9f4e-4b76e9ad7e19">
-      <UserInfo>
-        <DisplayName>Münch, Claudia</DisplayName>
-        <AccountId>99</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Bubik, Antje</DisplayName>
-        <AccountId>100</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Mack, Henning</DisplayName>
-        <AccountId>101</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5841,27 +5822,37 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="dc877d39-ac67-4e82-9042-477ace6c308a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d189ce61-6ebc-4716-9f4e-4b76e9ad7e19" xsi:nil="true"/>
+    <SharedWithUsers xmlns="d189ce61-6ebc-4716-9f4e-4b76e9ad7e19">
+      <UserInfo>
+        <DisplayName>Münch, Claudia</DisplayName>
+        <AccountId>99</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Bubik, Antje</DisplayName>
+        <AccountId>100</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Mack, Henning</DisplayName>
+        <AccountId>101</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC737808-C46C-4161-A1F3-7C462EDEDEB8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C40D6BC9-2BFD-4AFA-926B-D88919A76B52}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="d189ce61-6ebc-4716-9f4e-4b76e9ad7e19"/>
-    <ds:schemaRef ds:uri="dc877d39-ac67-4e82-9042-477ace6c308a"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5886,9 +5877,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C40D6BC9-2BFD-4AFA-926B-D88919A76B52}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC737808-C46C-4161-A1F3-7C462EDEDEB8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d189ce61-6ebc-4716-9f4e-4b76e9ad7e19"/>
+    <ds:schemaRef ds:uri="dc877d39-ac67-4e82-9042-477ace6c308a"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>